--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gas6-Axl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gas6-Axl.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.31916866666667</v>
+        <v>13.68414866666667</v>
       </c>
       <c r="H2">
-        <v>57.957506</v>
+        <v>41.052446</v>
       </c>
       <c r="I2">
-        <v>0.09973928790435696</v>
+        <v>0.06687192512742757</v>
       </c>
       <c r="J2">
-        <v>0.1012662650824037</v>
+        <v>0.06728034099283527</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.480095666666666</v>
+        <v>3.029459000000001</v>
       </c>
       <c r="N2">
-        <v>10.440287</v>
+        <v>9.088377000000001</v>
       </c>
       <c r="O2">
-        <v>0.01473490062525521</v>
+        <v>0.009650183621689718</v>
       </c>
       <c r="P2">
-        <v>0.01577541664427218</v>
+        <v>0.0101382356457613</v>
       </c>
       <c r="Q2">
-        <v>67.23255516046909</v>
+        <v>41.45556733557134</v>
       </c>
       <c r="R2">
-        <v>605.0929964442219</v>
+        <v>373.100106020142</v>
       </c>
       <c r="S2">
-        <v>0.001469648495704419</v>
+        <v>0.0006453263566155627</v>
       </c>
       <c r="T2">
-        <v>0.00159751752368423</v>
+        <v>0.0006821039513125376</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.31916866666667</v>
+        <v>13.68414866666667</v>
       </c>
       <c r="H3">
-        <v>57.957506</v>
+        <v>41.052446</v>
       </c>
       <c r="I3">
-        <v>0.09973928790435696</v>
+        <v>0.06687192512742757</v>
       </c>
       <c r="J3">
-        <v>0.1012662650824037</v>
+        <v>0.06728034099283527</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>226.576797</v>
       </c>
       <c r="O3">
-        <v>0.3197791964707123</v>
+        <v>0.2405828560439687</v>
       </c>
       <c r="P3">
-        <v>0.3423606433999065</v>
+        <v>0.2527501840920355</v>
       </c>
       <c r="Q3">
-        <v>1459.091785732031</v>
+        <v>1033.503524855051</v>
       </c>
       <c r="R3">
-        <v>13131.82607158828</v>
+        <v>9301.531723695462</v>
       </c>
       <c r="S3">
-        <v>0.0318945493426163</v>
+        <v>0.01608823873631496</v>
       </c>
       <c r="T3">
-        <v>0.03466958366831721</v>
+        <v>0.01700511857171404</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.31916866666667</v>
+        <v>13.68414866666667</v>
       </c>
       <c r="H4">
-        <v>57.957506</v>
+        <v>41.052446</v>
       </c>
       <c r="I4">
-        <v>0.09973928790435696</v>
+        <v>0.06687192512742757</v>
       </c>
       <c r="J4">
-        <v>0.1012662650824037</v>
+        <v>0.06728034099283527</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.97191733333334</v>
+        <v>109.55234</v>
       </c>
       <c r="N4">
-        <v>227.915752</v>
+        <v>328.65702</v>
       </c>
       <c r="O4">
-        <v>0.3216689308110315</v>
+        <v>0.348973264594696</v>
       </c>
       <c r="P4">
-        <v>0.3443838227428625</v>
+        <v>0.3666223700220274</v>
       </c>
       <c r="Q4">
-        <v>1467.714284892724</v>
+        <v>1499.130507341213</v>
       </c>
       <c r="R4">
-        <v>13209.42856403451</v>
+        <v>13492.17456607092</v>
       </c>
       <c r="S4">
-        <v>0.03208303010004816</v>
+        <v>0.02333651402145048</v>
       </c>
       <c r="T4">
-        <v>0.03487446348397023</v>
+        <v>0.02466647807068343</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.31916866666667</v>
+        <v>13.68414866666667</v>
       </c>
       <c r="H5">
-        <v>57.957506</v>
+        <v>41.052446</v>
       </c>
       <c r="I5">
-        <v>0.09973928790435696</v>
+        <v>0.06687192512742757</v>
       </c>
       <c r="J5">
-        <v>0.1012662650824037</v>
+        <v>0.06728034099283527</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>46.734022</v>
+        <v>45.33717900000001</v>
       </c>
       <c r="N5">
-        <v>93.46804400000001</v>
+        <v>90.67435800000001</v>
       </c>
       <c r="O5">
-        <v>0.1978742069030739</v>
+        <v>0.144419218824026</v>
       </c>
       <c r="P5">
-        <v>0.1412314945963808</v>
+        <v>0.1011487538899543</v>
       </c>
       <c r="Q5">
-        <v>902.8624534897107</v>
+        <v>620.4006975632781</v>
       </c>
       <c r="R5">
-        <v>5417.174720938264</v>
+        <v>3722.404185379668</v>
       </c>
       <c r="S5">
-        <v>0.01973583249115199</v>
+        <v>0.009657591188161847</v>
       </c>
       <c r="T5">
-        <v>0.01430198596978116</v>
+        <v>0.006805322652716498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.31916866666667</v>
+        <v>13.68414866666667</v>
       </c>
       <c r="H6">
-        <v>57.957506</v>
+        <v>41.052446</v>
       </c>
       <c r="I6">
-        <v>0.09973928790435696</v>
+        <v>0.06687192512742757</v>
       </c>
       <c r="J6">
-        <v>0.1012662650824037</v>
+        <v>0.06728034099283527</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.46883</v>
+        <v>80.48302466666667</v>
       </c>
       <c r="N6">
-        <v>103.40649</v>
+        <v>241.449074</v>
       </c>
       <c r="O6">
-        <v>0.1459427651899269</v>
+        <v>0.2563744769156197</v>
       </c>
       <c r="P6">
-        <v>0.156248622616578</v>
+        <v>0.2693404563502215</v>
       </c>
       <c r="Q6">
-        <v>665.90914051266</v>
+        <v>1101.341674681667</v>
       </c>
       <c r="R6">
-        <v>5993.182264613939</v>
+        <v>9912.075072135003</v>
       </c>
       <c r="S6">
-        <v>0.01455622747483609</v>
+        <v>0.01714425482488472</v>
       </c>
       <c r="T6">
-        <v>0.01582271443665084</v>
+        <v>0.01812131774640877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>382.104683</v>
       </c>
       <c r="I7">
-        <v>0.6575653719009243</v>
+        <v>0.622425171752627</v>
       </c>
       <c r="J7">
-        <v>0.6676324912584374</v>
+        <v>0.6262265923740385</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.480095666666666</v>
+        <v>3.029459000000001</v>
       </c>
       <c r="N7">
-        <v>10.440287</v>
+        <v>9.088377000000001</v>
       </c>
       <c r="O7">
-        <v>0.01473490062525521</v>
+        <v>0.009650183621689718</v>
       </c>
       <c r="P7">
-        <v>0.01577541664427218</v>
+        <v>0.0101382356457613</v>
       </c>
       <c r="Q7">
-        <v>443.25361717378</v>
+        <v>385.8568236188324</v>
       </c>
       <c r="R7">
-        <v>3989.28255456402</v>
+        <v>3472.711412569492</v>
       </c>
       <c r="S7">
-        <v>0.009689160409569105</v>
+        <v>0.006006517198174612</v>
       </c>
       <c r="T7">
-        <v>0.01053218071485526</v>
+        <v>0.006348832761130109</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>382.104683</v>
       </c>
       <c r="I8">
-        <v>0.6575653719009243</v>
+        <v>0.622425171752627</v>
       </c>
       <c r="J8">
-        <v>0.6676324912584374</v>
+        <v>0.6262265923740385</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>226.576797</v>
       </c>
       <c r="O8">
-        <v>0.3197791964707123</v>
+        <v>0.2405828560439687</v>
       </c>
       <c r="P8">
-        <v>0.3423606433999065</v>
+        <v>0.2527501840920355</v>
       </c>
       <c r="Q8">
         <v>9619.561688093372</v>
@@ -948,10 +948,10 @@
         <v>86576.05519284036</v>
       </c>
       <c r="S8">
-        <v>0.2102757262534427</v>
+        <v>0.1497448254939047</v>
       </c>
       <c r="T8">
-        <v>0.2285710892619211</v>
+        <v>0.1582788865058663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>382.104683</v>
       </c>
       <c r="I9">
-        <v>0.6575653719009243</v>
+        <v>0.622425171752627</v>
       </c>
       <c r="J9">
-        <v>0.6676324912584374</v>
+        <v>0.6262265923740385</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>75.97191733333334</v>
+        <v>109.55234</v>
       </c>
       <c r="N9">
-        <v>227.915752</v>
+        <v>328.65702</v>
       </c>
       <c r="O9">
-        <v>0.3216689308110315</v>
+        <v>0.348973264594696</v>
       </c>
       <c r="P9">
-        <v>0.3443838227428625</v>
+        <v>0.3666223700220274</v>
       </c>
       <c r="Q9">
-        <v>9676.40846318518</v>
+        <v>13953.48738253607</v>
       </c>
       <c r="R9">
-        <v>87087.67616866661</v>
+        <v>125581.3864428247</v>
       </c>
       <c r="S9">
-        <v>0.2115183501177287</v>
+        <v>0.2172097441524286</v>
       </c>
       <c r="T9">
-        <v>0.2299218295269214</v>
+        <v>0.2295886774669881</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>382.104683</v>
       </c>
       <c r="I10">
-        <v>0.6575653719009243</v>
+        <v>0.622425171752627</v>
       </c>
       <c r="J10">
-        <v>0.6676324912584374</v>
+        <v>0.6262265923740385</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.734022</v>
+        <v>45.33717900000001</v>
       </c>
       <c r="N10">
-        <v>93.46804400000001</v>
+        <v>90.67435800000001</v>
       </c>
       <c r="O10">
-        <v>0.1978742069030739</v>
+        <v>0.144419218824026</v>
       </c>
       <c r="P10">
-        <v>0.1412314945963808</v>
+        <v>0.1011487538899543</v>
       </c>
       <c r="Q10">
-        <v>5952.429553875009</v>
+        <v>5774.51613663642</v>
       </c>
       <c r="R10">
-        <v>35714.57732325006</v>
+        <v>34647.09681981852</v>
       </c>
       <c r="S10">
-        <v>0.1301152264518202</v>
+        <v>0.08989015708092463</v>
       </c>
       <c r="T10">
-        <v>0.09429073458153427</v>
+        <v>0.06334203947138636</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>382.104683</v>
       </c>
       <c r="I11">
-        <v>0.6575653719009243</v>
+        <v>0.622425171752627</v>
       </c>
       <c r="J11">
-        <v>0.6676324912584374</v>
+        <v>0.6262265923740385</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.46883</v>
+        <v>80.48302466666667</v>
       </c>
       <c r="N11">
-        <v>103.40649</v>
+        <v>241.449074</v>
       </c>
       <c r="O11">
-        <v>0.1459427651899269</v>
+        <v>0.2563744769156197</v>
       </c>
       <c r="P11">
-        <v>0.156248622616578</v>
+        <v>0.2693404563502215</v>
       </c>
       <c r="Q11">
-        <v>4390.23378684363</v>
+        <v>10250.98020904595</v>
       </c>
       <c r="R11">
-        <v>39512.10408159267</v>
+        <v>92258.82188141355</v>
       </c>
       <c r="S11">
-        <v>0.09596690866836358</v>
+        <v>0.1595739278271945</v>
       </c>
       <c r="T11">
-        <v>0.1043166571732054</v>
+        <v>0.1686681561686677</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.657769</v>
+        <v>17.548286</v>
       </c>
       <c r="H12">
-        <v>55.97330699999999</v>
+        <v>52.644858</v>
       </c>
       <c r="I12">
-        <v>0.09632467245626405</v>
+        <v>0.08575525566783661</v>
       </c>
       <c r="J12">
-        <v>0.0977993729440456</v>
+        <v>0.08627900022715801</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.480095666666666</v>
+        <v>3.029459000000001</v>
       </c>
       <c r="N12">
-        <v>10.440287</v>
+        <v>9.088377000000001</v>
       </c>
       <c r="O12">
-        <v>0.01473490062525521</v>
+        <v>0.009650183621689718</v>
       </c>
       <c r="P12">
-        <v>0.01577541664427218</v>
+        <v>0.0101382356457613</v>
       </c>
       <c r="Q12">
-        <v>64.93082104656764</v>
+        <v>53.16181295727402</v>
       </c>
       <c r="R12">
-        <v>584.3773894191088</v>
+        <v>478.4563166154661</v>
       </c>
       <c r="S12">
-        <v>0.001419334476403308</v>
+        <v>0.0008275539637195712</v>
       </c>
       <c r="T12">
-        <v>0.001542825855740879</v>
+        <v>0.0008747168355836205</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.657769</v>
+        <v>17.548286</v>
       </c>
       <c r="H13">
-        <v>55.97330699999999</v>
+        <v>52.644858</v>
       </c>
       <c r="I13">
-        <v>0.09632467245626405</v>
+        <v>0.08575525566783661</v>
       </c>
       <c r="J13">
-        <v>0.0977993729440456</v>
+        <v>0.08627900022715801</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>226.576797</v>
       </c>
       <c r="O13">
-        <v>0.3197791964707123</v>
+        <v>0.2405828560439687</v>
       </c>
       <c r="P13">
-        <v>0.3423606433999065</v>
+        <v>0.2527501840920355</v>
       </c>
       <c r="Q13">
-        <v>1409.139179728631</v>
+        <v>1325.344811573314</v>
       </c>
       <c r="R13">
-        <v>12682.25261755768</v>
+        <v>11928.10330415983</v>
       </c>
       <c r="S13">
-        <v>0.03080262635836867</v>
+        <v>0.02063124432934886</v>
       </c>
       <c r="T13">
-        <v>0.03348265624523086</v>
+        <v>0.02180703319069096</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.657769</v>
+        <v>17.548286</v>
       </c>
       <c r="H14">
-        <v>55.97330699999999</v>
+        <v>52.644858</v>
       </c>
       <c r="I14">
-        <v>0.09632467245626405</v>
+        <v>0.08575525566783661</v>
       </c>
       <c r="J14">
-        <v>0.0977993729440456</v>
+        <v>0.08627900022715801</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>75.97191733333334</v>
+        <v>109.55234</v>
       </c>
       <c r="N14">
-        <v>227.915752</v>
+        <v>328.65702</v>
       </c>
       <c r="O14">
-        <v>0.3216689308110315</v>
+        <v>0.348973264594696</v>
       </c>
       <c r="P14">
-        <v>0.3443838227428625</v>
+        <v>0.3666223700220274</v>
       </c>
       <c r="Q14">
-        <v>1417.466484092429</v>
+        <v>1922.45579428924</v>
       </c>
       <c r="R14">
-        <v>12757.19835683186</v>
+        <v>17302.10214860316</v>
       </c>
       <c r="S14">
-        <v>0.03098465439972928</v>
+        <v>0.02992629152655775</v>
       </c>
       <c r="T14">
-        <v>0.03368052191632531</v>
+        <v>0.03163181154641171</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.657769</v>
+        <v>17.548286</v>
       </c>
       <c r="H15">
-        <v>55.97330699999999</v>
+        <v>52.644858</v>
       </c>
       <c r="I15">
-        <v>0.09632467245626405</v>
+        <v>0.08575525566783661</v>
       </c>
       <c r="J15">
-        <v>0.0977993729440456</v>
+        <v>0.08627900022715801</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.734022</v>
+        <v>45.33717900000001</v>
       </c>
       <c r="N15">
-        <v>93.46804400000001</v>
+        <v>90.67435800000001</v>
       </c>
       <c r="O15">
-        <v>0.1978742069030739</v>
+        <v>0.144419218824026</v>
       </c>
       <c r="P15">
-        <v>0.1412314945963808</v>
+        <v>0.1011487538899543</v>
       </c>
       <c r="Q15">
-        <v>871.952586916918</v>
+        <v>795.5897835251941</v>
       </c>
       <c r="R15">
-        <v>5231.715521501507</v>
+        <v>4773.538701151165</v>
       </c>
       <c r="S15">
-        <v>0.01906016816748162</v>
+        <v>0.01238470703360359</v>
       </c>
       <c r="T15">
-        <v>0.01381235161147641</v>
+        <v>0.008727013359848117</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.657769</v>
+        <v>17.548286</v>
       </c>
       <c r="H16">
-        <v>55.97330699999999</v>
+        <v>52.644858</v>
       </c>
       <c r="I16">
-        <v>0.09632467245626405</v>
+        <v>0.08575525566783661</v>
       </c>
       <c r="J16">
-        <v>0.0977993729440456</v>
+        <v>0.08627900022715801</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.46883</v>
+        <v>80.48302466666667</v>
       </c>
       <c r="N16">
-        <v>103.40649</v>
+        <v>241.449074</v>
       </c>
       <c r="O16">
-        <v>0.1459427651899269</v>
+        <v>0.2563744769156197</v>
       </c>
       <c r="P16">
-        <v>0.156248622616578</v>
+        <v>0.2693404563502215</v>
       </c>
       <c r="Q16">
-        <v>643.1114678402699</v>
+        <v>1412.339134995721</v>
       </c>
       <c r="R16">
-        <v>5788.003210562429</v>
+        <v>12711.05221496149</v>
       </c>
       <c r="S16">
-        <v>0.01405788905428117</v>
+        <v>0.02198545881460684</v>
       </c>
       <c r="T16">
-        <v>0.01528101731527215</v>
+        <v>0.0232384252946236</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.76216</v>
+        <v>3.726573</v>
       </c>
       <c r="H17">
-        <v>17.52432</v>
+        <v>7.453145999999999</v>
       </c>
       <c r="I17">
-        <v>0.04523650132067659</v>
+        <v>0.01821107887003078</v>
       </c>
       <c r="J17">
-        <v>0.03061937196726285</v>
+        <v>0.01221486788751604</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.480095666666666</v>
+        <v>3.029459000000001</v>
       </c>
       <c r="N17">
-        <v>10.440287</v>
+        <v>9.088377000000001</v>
       </c>
       <c r="O17">
-        <v>0.01473490062525521</v>
+        <v>0.009650183621689718</v>
       </c>
       <c r="P17">
-        <v>0.01577541664427218</v>
+        <v>0.0101382356457613</v>
       </c>
       <c r="Q17">
-        <v>30.49315504663999</v>
+        <v>11.289500114007</v>
       </c>
       <c r="R17">
-        <v>182.95893027984</v>
+        <v>67.737000684042</v>
       </c>
       <c r="S17">
-        <v>0.0006665553515943955</v>
+        <v>0.0001757402550448707</v>
       </c>
       <c r="T17">
-        <v>0.0004830333501695194</v>
+        <v>0.0001238372090254801</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.76216</v>
+        <v>3.726573</v>
       </c>
       <c r="H18">
-        <v>17.52432</v>
+        <v>7.453145999999999</v>
       </c>
       <c r="I18">
-        <v>0.04523650132067659</v>
+        <v>0.01821107887003078</v>
       </c>
       <c r="J18">
-        <v>0.03061937196726285</v>
+        <v>0.01221486788751604</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>226.576797</v>
       </c>
       <c r="O18">
-        <v>0.3197791964707123</v>
+        <v>0.2405828560439687</v>
       </c>
       <c r="P18">
-        <v>0.3423606433999065</v>
+        <v>0.2527501840920355</v>
       </c>
       <c r="Q18">
-        <v>661.76738253384</v>
+        <v>281.451658042227</v>
       </c>
       <c r="R18">
-        <v>3970.60429520304</v>
+        <v>1688.709948253362</v>
       </c>
       <c r="S18">
-        <v>0.01446569204347227</v>
+        <v>0.004381273366193973</v>
       </c>
       <c r="T18">
-        <v>0.01048286788721317</v>
+        <v>0.003087310107229571</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.76216</v>
+        <v>3.726573</v>
       </c>
       <c r="H19">
-        <v>17.52432</v>
+        <v>7.453145999999999</v>
       </c>
       <c r="I19">
-        <v>0.04523650132067659</v>
+        <v>0.01821107887003078</v>
       </c>
       <c r="J19">
-        <v>0.03061937196726285</v>
+        <v>0.01221486788751604</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>75.97191733333334</v>
+        <v>109.55234</v>
       </c>
       <c r="N19">
-        <v>227.915752</v>
+        <v>328.65702</v>
       </c>
       <c r="O19">
-        <v>0.3216689308110315</v>
+        <v>0.348973264594696</v>
       </c>
       <c r="P19">
-        <v>0.3443838227428625</v>
+        <v>0.3666223700220274</v>
       </c>
       <c r="Q19">
-        <v>665.67809518144</v>
+        <v>408.25479233082</v>
       </c>
       <c r="R19">
-        <v>3994.06857108864</v>
+        <v>2449.52875398492</v>
       </c>
       <c r="S19">
-        <v>0.01455117701345385</v>
+        <v>0.006355179645066127</v>
       </c>
       <c r="T19">
-        <v>0.01054481636807162</v>
+        <v>0.004478243814427085</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.76216</v>
+        <v>3.726573</v>
       </c>
       <c r="H20">
-        <v>17.52432</v>
+        <v>7.453145999999999</v>
       </c>
       <c r="I20">
-        <v>0.04523650132067659</v>
+        <v>0.01821107887003078</v>
       </c>
       <c r="J20">
-        <v>0.03061937196726285</v>
+        <v>0.01221486788751604</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>46.734022</v>
+        <v>45.33717900000001</v>
       </c>
       <c r="N20">
-        <v>93.46804400000001</v>
+        <v>90.67435800000001</v>
       </c>
       <c r="O20">
-        <v>0.1978742069030739</v>
+        <v>0.144419218824026</v>
       </c>
       <c r="P20">
-        <v>0.1412314945963808</v>
+        <v>0.1011487538899543</v>
       </c>
       <c r="Q20">
-        <v>409.49097820752</v>
+        <v>168.952307157567</v>
       </c>
       <c r="R20">
-        <v>1637.96391283008</v>
+        <v>675.8092286302681</v>
       </c>
       <c r="S20">
-        <v>0.008951136821898735</v>
+        <v>0.002630029784352571</v>
       </c>
       <c r="T20">
-        <v>0.004324419666539058</v>
+        <v>0.001235518665752666</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.76216</v>
+        <v>3.726573</v>
       </c>
       <c r="H21">
-        <v>17.52432</v>
+        <v>7.453145999999999</v>
       </c>
       <c r="I21">
-        <v>0.04523650132067659</v>
+        <v>0.01821107887003078</v>
       </c>
       <c r="J21">
-        <v>0.03061937196726285</v>
+        <v>0.01221486788751604</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.46883</v>
+        <v>80.48302466666667</v>
       </c>
       <c r="N21">
-        <v>103.40649</v>
+        <v>241.449074</v>
       </c>
       <c r="O21">
-        <v>0.1459427651899269</v>
+        <v>0.2563744769156197</v>
       </c>
       <c r="P21">
-        <v>0.156248622616578</v>
+        <v>0.2693404563502215</v>
       </c>
       <c r="Q21">
-        <v>302.0214034728</v>
+        <v>299.925866681134</v>
       </c>
       <c r="R21">
-        <v>1812.1284208368</v>
+        <v>1799.555200086804</v>
       </c>
       <c r="S21">
-        <v>0.006601940090257323</v>
+        <v>0.004668855819373234</v>
       </c>
       <c r="T21">
-        <v>0.00478423469526948</v>
+        <v>0.003289958091081236</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.589352</v>
+        <v>42.30495733333333</v>
       </c>
       <c r="H22">
-        <v>58.768056</v>
+        <v>126.914872</v>
       </c>
       <c r="I22">
-        <v>0.1011341664177781</v>
+        <v>0.206736568582078</v>
       </c>
       <c r="J22">
-        <v>0.1026824987478506</v>
+        <v>0.2079991985184523</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.480095666666666</v>
+        <v>3.029459000000001</v>
       </c>
       <c r="N22">
-        <v>10.440287</v>
+        <v>9.088377000000001</v>
       </c>
       <c r="O22">
-        <v>0.01473490062525521</v>
+        <v>0.009650183621689718</v>
       </c>
       <c r="P22">
-        <v>0.01577541664427218</v>
+        <v>0.0101382356457613</v>
       </c>
       <c r="Q22">
-        <v>68.17281900800799</v>
+        <v>128.1611337380827</v>
       </c>
       <c r="R22">
-        <v>613.5553710720719</v>
+        <v>1153.450203642744</v>
       </c>
       <c r="S22">
-        <v>0.001490201891983983</v>
+        <v>0.001995045848135102</v>
       </c>
       <c r="T22">
-        <v>0.0016198591998223</v>
+        <v>0.002108744888709554</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.589352</v>
+        <v>42.30495733333333</v>
       </c>
       <c r="H23">
-        <v>58.768056</v>
+        <v>126.914872</v>
       </c>
       <c r="I23">
-        <v>0.1011341664177781</v>
+        <v>0.206736568582078</v>
       </c>
       <c r="J23">
-        <v>0.1026824987478506</v>
+        <v>0.2079991985184523</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>226.576797</v>
       </c>
       <c r="O23">
-        <v>0.3197791964707123</v>
+        <v>0.2405828560439687</v>
       </c>
       <c r="P23">
-        <v>0.3423606433999065</v>
+        <v>0.2527501840920355</v>
       </c>
       <c r="Q23">
-        <v>1479.497543821848</v>
+        <v>3195.107243269443</v>
       </c>
       <c r="R23">
-        <v>13315.47789439663</v>
+        <v>28755.96518942498</v>
       </c>
       <c r="S23">
-        <v>0.03234060247281238</v>
+        <v>0.04973727411820613</v>
       </c>
       <c r="T23">
-        <v>0.03515444633722423</v>
+        <v>0.05257183571653466</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.589352</v>
+        <v>42.30495733333333</v>
       </c>
       <c r="H24">
-        <v>58.768056</v>
+        <v>126.914872</v>
       </c>
       <c r="I24">
-        <v>0.1011341664177781</v>
+        <v>0.206736568582078</v>
       </c>
       <c r="J24">
-        <v>0.1026824987478506</v>
+        <v>0.2079991985184523</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>75.97191733333334</v>
+        <v>109.55234</v>
       </c>
       <c r="N24">
-        <v>227.915752</v>
+        <v>328.65702</v>
       </c>
       <c r="O24">
-        <v>0.3216689308110315</v>
+        <v>0.348973264594696</v>
       </c>
       <c r="P24">
-        <v>0.3443838227428625</v>
+        <v>0.3666223700220274</v>
       </c>
       <c r="Q24">
-        <v>1488.240630757568</v>
+        <v>4634.607069466827</v>
       </c>
       <c r="R24">
-        <v>13394.16567681811</v>
+        <v>41711.46362520144</v>
       </c>
       <c r="S24">
-        <v>0.03253171918007162</v>
+        <v>0.07214553524919302</v>
       </c>
       <c r="T24">
-        <v>0.03536219144757399</v>
+        <v>0.07625715912351715</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.589352</v>
+        <v>42.30495733333333</v>
       </c>
       <c r="H25">
-        <v>58.768056</v>
+        <v>126.914872</v>
       </c>
       <c r="I25">
-        <v>0.1011341664177781</v>
+        <v>0.206736568582078</v>
       </c>
       <c r="J25">
-        <v>0.1026824987478506</v>
+        <v>0.2079991985184523</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>46.734022</v>
+        <v>45.33717900000001</v>
       </c>
       <c r="N25">
-        <v>93.46804400000001</v>
+        <v>90.67435800000001</v>
       </c>
       <c r="O25">
-        <v>0.1978742069030739</v>
+        <v>0.144419218824026</v>
       </c>
       <c r="P25">
-        <v>0.1412314945963808</v>
+        <v>0.1011487538899543</v>
       </c>
       <c r="Q25">
-        <v>915.4892073337442</v>
+        <v>1917.987423208696</v>
       </c>
       <c r="R25">
-        <v>5492.935244002464</v>
+        <v>11507.92453925218</v>
       </c>
       <c r="S25">
-        <v>0.02001184297072134</v>
+        <v>0.02985673373698339</v>
       </c>
       <c r="T25">
-        <v>0.01450200276704994</v>
+        <v>0.02103885974025068</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.589352</v>
+        <v>42.30495733333333</v>
       </c>
       <c r="H26">
-        <v>58.768056</v>
+        <v>126.914872</v>
       </c>
       <c r="I26">
-        <v>0.1011341664177781</v>
+        <v>0.206736568582078</v>
       </c>
       <c r="J26">
-        <v>0.1026824987478506</v>
+        <v>0.2079991985184523</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.46883</v>
+        <v>80.48302466666667</v>
       </c>
       <c r="N26">
-        <v>103.40649</v>
+        <v>241.449074</v>
       </c>
       <c r="O26">
-        <v>0.1459427651899269</v>
+        <v>0.2563744769156197</v>
       </c>
       <c r="P26">
-        <v>0.156248622616578</v>
+        <v>0.2693404563502215</v>
       </c>
       <c r="Q26">
-        <v>675.22204389816</v>
+        <v>3404.830924580948</v>
       </c>
       <c r="R26">
-        <v>6076.998395083439</v>
+        <v>30643.47832122853</v>
       </c>
       <c r="S26">
-        <v>0.01475979990218879</v>
+        <v>0.05300197962956037</v>
       </c>
       <c r="T26">
-        <v>0.01604399899618015</v>
+        <v>0.05602259904944026</v>
       </c>
     </row>
   </sheetData>
